--- a/biology/Zoologie/Felimare_tricolor/Felimare_tricolor.xlsx
+++ b/biology/Zoologie/Felimare_tricolor/Felimare_tricolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doris tricolore
 Felimare tricolor, communément appelé le Doris tricolore, est une espèce de nudibranches de la famille des Chromodorididae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce nudibranche mesure de 30 à 40 millimètres[2]. Son manteau bleu tacheté de blanc est parcouru par une ligne médiane (jaune ou blanche), débutant entre les rhinophores. Ceux-ci sont pennées, bleu avec une pointe blanche au bout. Le pied est visible, non recouvert par le manteau qui est bordé d'une ligne jaune orangé. Deux fines lignes blanches soulignent les flancs et les feuillets du panache branchial.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce nudibranche mesure de 30 à 40 millimètres. Son manteau bleu tacheté de blanc est parcouru par une ligne médiane (jaune ou blanche), débutant entre les rhinophores. Ceux-ci sont pennées, bleu avec une pointe blanche au bout. Le pied est visible, non recouvert par le manteau qui est bordé d'une ligne jaune orangé. Deux fines lignes blanches soulignent les flancs et les feuillets du panache branchial.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit entre 5 et 60 mètres de profondeur à l'Ouest de la mer Méditerranée, l'Adriatique et dans l'Atlantique Est adjacent. Il se nourrit des éponges Cacospongia, Spongia et Dysidea.
 </t>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tricolor vient de sa robe à trois couleurs.
 </t>
@@ -605,7 +623,9 @@
           <t>Espèces similaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Doris céleste, Felimare orsinii (Vérany, 1846), celui-ci est plus petit
 Doris de Fontandrau, Felimare fontandraui (Pruvot-Fol, 1951), robe plus translucide, rhinophores et panache plus foncés.</t>
